--- a/Assignment 2 Planning.xlsx
+++ b/Assignment 2 Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Chai\Desktop\Assignment\STE_bootcamp_19092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FCBE7-4423-441E-A2FF-85E1C3ED0976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC66C4E0-D74A-499F-92E1-FB08B0CE3FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Standalone Task</t>
   </si>
@@ -60,23 +60,217 @@
     <t>App_permit_Done</t>
   </si>
   <si>
-    <t>Task can be demoted to doing</t>
-  </si>
-  <si>
     <t>Assign task to created plan</t>
   </si>
   <si>
-    <t>Task can be promoted to close</t>
+    <t>PM (Project Manager)</t>
+  </si>
+  <si>
+    <t>TM (Team Member)</t>
+  </si>
+  <si>
+    <t>App_permit_open</t>
+  </si>
+  <si>
+    <t>App_permit_toDoList</t>
+  </si>
+  <si>
+    <t>App_permit_Doing</t>
+  </si>
+  <si>
+    <t>Create plan</t>
+  </si>
+  <si>
+    <t>Assign Plan</t>
+  </si>
+  <si>
+    <t>Able to add notes to task description</t>
+  </si>
+  <si>
+    <t>Able to add notes to plan description</t>
+  </si>
+  <si>
+    <t>When performing promotion to done, email will be send  to project lead</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to Doing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to close</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to To-do-list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to doing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to To-do-list</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit task description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,12 +320,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,16 +612,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.7265625" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="64.6328125" customWidth="1"/>
     <col min="3" max="3" width="42.54296875" customWidth="1"/>
     <col min="4" max="4" width="61.08984375" customWidth="1"/>
   </cols>
@@ -444,13 +641,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -458,40 +655,111 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="6"/>
+      <c r="D14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>